--- a/Jogos_do_Dia/2023-02-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1648,13 +1648,13 @@
         <v>226</v>
       </c>
       <c r="F2">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="G2">
-        <v>3.15</v>
+        <v>3.54</v>
       </c>
       <c r="H2">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="I2">
         <v>1.05</v>
@@ -1669,10 +1669,10 @@
         <v>3.5</v>
       </c>
       <c r="M2">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O2">
         <v>1.36</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>1.74</v>
@@ -1752,13 +1752,13 @@
         <v>227</v>
       </c>
       <c r="F3">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="G3">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>3.15</v>
+        <v>2.71</v>
       </c>
       <c r="I3">
         <v>1.05</v>
@@ -1773,10 +1773,10 @@
         <v>3.75</v>
       </c>
       <c r="M3">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="O3">
         <v>1.36</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <v>1.53</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5">
         <v>1.17</v>
@@ -2064,13 +2064,13 @@
         <v>230</v>
       </c>
       <c r="F6">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="G6">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="H6">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="I6">
         <v>1.03</v>
@@ -2085,10 +2085,10 @@
         <v>4.2</v>
       </c>
       <c r="M6">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="N6">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O6">
         <v>1.33</v>
@@ -2112,10 +2112,10 @@
         <v>1.52</v>
       </c>
       <c r="V6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W6">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="X6">
         <v>1.7</v>
@@ -2168,13 +2168,13 @@
         <v>231</v>
       </c>
       <c r="F7">
-        <v>2.6</v>
+        <v>2.79</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="H7">
-        <v>2.4</v>
+        <v>2.59</v>
       </c>
       <c r="I7">
         <v>1.05</v>
@@ -2189,10 +2189,10 @@
         <v>3.5</v>
       </c>
       <c r="M7">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="N7">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="O7">
         <v>1.4</v>
@@ -2216,10 +2216,10 @@
         <v>1.44</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W7">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="X7">
         <v>1.41</v>
@@ -2272,13 +2272,13 @@
         <v>232</v>
       </c>
       <c r="F8">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="G8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H8">
-        <v>3.85</v>
+        <v>5.25</v>
       </c>
       <c r="I8">
         <v>1.08</v>
@@ -2293,10 +2293,10 @@
         <v>2.36</v>
       </c>
       <c r="M8">
-        <v>2.23</v>
+        <v>2.77</v>
       </c>
       <c r="N8">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="O8">
         <v>1.58</v>
@@ -2320,10 +2320,10 @@
         <v>2.26</v>
       </c>
       <c r="V8">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X8">
         <v>2.27</v>
@@ -2376,13 +2376,13 @@
         <v>233</v>
       </c>
       <c r="F9">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="G9">
-        <v>5.45</v>
+        <v>6.25</v>
       </c>
       <c r="H9">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>1.03</v>
@@ -2397,10 +2397,10 @@
         <v>4.15</v>
       </c>
       <c r="M9">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="N9">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
         <v>1.28</v>
@@ -2424,10 +2424,10 @@
         <v>3.1</v>
       </c>
       <c r="V9">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="W9">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="X9">
         <v>1.7</v>
@@ -2480,13 +2480,13 @@
         <v>234</v>
       </c>
       <c r="F10">
-        <v>2.5</v>
+        <v>5.33</v>
       </c>
       <c r="G10">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="H10">
-        <v>2.8</v>
+        <v>1.73</v>
       </c>
       <c r="I10">
         <v>1.08</v>
@@ -2501,7 +2501,7 @@
         <v>2.8</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="N10">
         <v>1.61</v>
@@ -2528,10 +2528,10 @@
         <v>1.5</v>
       </c>
       <c r="V10">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X10">
         <v>1.5</v>
@@ -2584,13 +2584,13 @@
         <v>235</v>
       </c>
       <c r="F11">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="G11">
-        <v>3.25</v>
+        <v>3.83</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="I11">
         <v>1.03</v>
@@ -2605,10 +2605,10 @@
         <v>3.75</v>
       </c>
       <c r="M11">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O11">
         <v>1.33</v>
@@ -2632,10 +2632,10 @@
         <v>1.17</v>
       </c>
       <c r="V11">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="X11">
         <v>1.67</v>
@@ -2688,13 +2688,13 @@
         <v>236</v>
       </c>
       <c r="F12">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="G12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>3.45</v>
+        <v>3.17</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -2709,10 +2709,10 @@
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="N12">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="O12">
         <v>1.39</v>
@@ -2736,10 +2736,10 @@
         <v>1.75</v>
       </c>
       <c r="V12">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="W12">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="X12">
         <v>1.79</v>
@@ -2792,13 +2792,13 @@
         <v>237</v>
       </c>
       <c r="F13">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="G13">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="H13">
-        <v>4.3</v>
+        <v>3.68</v>
       </c>
       <c r="I13">
         <v>1.03</v>
@@ -2813,10 +2813,10 @@
         <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="N13">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="O13">
         <v>1.3</v>
@@ -2840,10 +2840,10 @@
         <v>2</v>
       </c>
       <c r="V13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="X13">
         <v>1.86</v>
@@ -2896,13 +2896,13 @@
         <v>238</v>
       </c>
       <c r="F14">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
       <c r="G14">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="H14">
-        <v>2.48</v>
+        <v>2.23</v>
       </c>
       <c r="I14">
         <v>1.04</v>
@@ -2917,10 +2917,10 @@
         <v>4</v>
       </c>
       <c r="M14">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="N14">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O14">
         <v>1.34</v>
@@ -2944,10 +2944,10 @@
         <v>1.42</v>
       </c>
       <c r="V14">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="W14">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="X14">
         <v>1.51</v>
@@ -3000,13 +3000,13 @@
         <v>239</v>
       </c>
       <c r="F15">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="G15">
-        <v>2.94</v>
+        <v>4.33</v>
       </c>
       <c r="H15">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="I15">
         <v>1.05</v>
@@ -3018,13 +3018,13 @@
         <v>1.49</v>
       </c>
       <c r="L15">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M15">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="O15">
         <v>1.48</v>
@@ -3048,10 +3048,10 @@
         <v>1.52</v>
       </c>
       <c r="V15">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="W15">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>1.71</v>
@@ -3104,13 +3104,13 @@
         <v>240</v>
       </c>
       <c r="F16">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="G16">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H16">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="I16">
         <v>1.08</v>
@@ -3125,10 +3125,10 @@
         <v>3.05</v>
       </c>
       <c r="M16">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="O16">
         <v>1.44</v>
@@ -3152,10 +3152,10 @@
         <v>1.31</v>
       </c>
       <c r="V16">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W16">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X16">
         <v>1.6</v>
@@ -3208,13 +3208,13 @@
         <v>241</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3223,43 +3223,43 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="V17">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="W17">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="X17">
         <v>1.34</v>
@@ -3312,13 +3312,13 @@
         <v>242</v>
       </c>
       <c r="F18">
-        <v>2.14</v>
+        <v>2.35</v>
       </c>
       <c r="G18">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="H18">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="I18">
         <v>1.08</v>
@@ -3333,10 +3333,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O18">
         <v>1.44</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3416,13 +3416,13 @@
         <v>243</v>
       </c>
       <c r="F19">
-        <v>10.7</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>5.85</v>
+        <v>6.5</v>
       </c>
       <c r="H19">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="I19">
         <v>1.02</v>
@@ -3464,10 +3464,10 @@
         <v>1.04</v>
       </c>
       <c r="V19">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="W19">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="X19">
         <v>1.32</v>
@@ -3520,13 +3520,13 @@
         <v>244</v>
       </c>
       <c r="F20">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="G20">
-        <v>3.92</v>
+        <v>2.88</v>
       </c>
       <c r="H20">
-        <v>7.2</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I20">
         <v>1.1</v>
@@ -3541,10 +3541,10 @@
         <v>2.8</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N20">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O20">
         <v>1.48</v>
@@ -3568,10 +3568,10 @@
         <v>2.46</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="W20">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="X20">
         <v>2.01</v>
@@ -3624,13 +3624,13 @@
         <v>245</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>7.84</v>
       </c>
       <c r="G21">
-        <v>5.6</v>
+        <v>3.52</v>
       </c>
       <c r="H21">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="I21">
         <v>1.03</v>
@@ -3648,7 +3648,7 @@
         <v>1.63</v>
       </c>
       <c r="N21">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="O21">
         <v>1.31</v>
@@ -3672,10 +3672,10 @@
         <v>1.01</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="W21">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="X21">
         <v>1.55</v>
@@ -3728,13 +3728,13 @@
         <v>246</v>
       </c>
       <c r="F22">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="G22">
-        <v>3.2</v>
+        <v>5.08</v>
       </c>
       <c r="H22">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="I22">
         <v>1.06</v>
@@ -3749,10 +3749,10 @@
         <v>3.5</v>
       </c>
       <c r="M22">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="N22">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="O22">
         <v>1.36</v>
@@ -3776,10 +3776,10 @@
         <v>1.62</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="W22">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="X22">
         <v>1.58</v>
@@ -3832,13 +3832,13 @@
         <v>247</v>
       </c>
       <c r="F23">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>7.86</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>7.97</v>
       </c>
       <c r="I23">
         <v>1.02</v>
@@ -3880,10 +3880,10 @@
         <v>3.2</v>
       </c>
       <c r="V23">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="W23">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>2.01</v>
@@ -3936,13 +3936,13 @@
         <v>248</v>
       </c>
       <c r="F24">
-        <v>3.4</v>
+        <v>5.17</v>
       </c>
       <c r="G24">
-        <v>3.3</v>
+        <v>2.34</v>
       </c>
       <c r="H24">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="I24">
         <v>1.05</v>
@@ -3957,10 +3957,10 @@
         <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N24">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O24">
         <v>1.39</v>
@@ -3984,10 +3984,10 @@
         <v>1.33</v>
       </c>
       <c r="V24">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="W24">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="X24">
         <v>1.41</v>
@@ -4040,13 +4040,13 @@
         <v>249</v>
       </c>
       <c r="F25">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H25">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="I25">
         <v>1.04</v>
@@ -4061,10 +4061,10 @@
         <v>4</v>
       </c>
       <c r="M25">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="N25">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
         <v>1.33</v>
@@ -4088,10 +4088,10 @@
         <v>1.33</v>
       </c>
       <c r="V25">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="X25">
         <v>1.67</v>
@@ -4144,13 +4144,13 @@
         <v>250</v>
       </c>
       <c r="F26">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G26">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H26">
-        <v>2.54</v>
+        <v>2.2</v>
       </c>
       <c r="I26">
         <v>1.06</v>
@@ -4165,10 +4165,10 @@
         <v>3.3</v>
       </c>
       <c r="M26">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N26">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O26">
         <v>1.38</v>
@@ -4192,10 +4192,10 @@
         <v>1.38</v>
       </c>
       <c r="V26">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X26">
         <v>1.71</v>
@@ -4248,13 +4248,13 @@
         <v>251</v>
       </c>
       <c r="F27">
-        <v>2.45</v>
+        <v>3.51</v>
       </c>
       <c r="G27">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="H27">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="I27">
         <v>1.06</v>
@@ -4269,10 +4269,10 @@
         <v>3.5</v>
       </c>
       <c r="M27">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="N27">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="O27">
         <v>1.36</v>
@@ -4296,10 +4296,10 @@
         <v>1.4</v>
       </c>
       <c r="V27">
+        <v>1.67</v>
+      </c>
+      <c r="W27">
         <v>1.82</v>
-      </c>
-      <c r="W27">
-        <v>1.7</v>
       </c>
       <c r="X27">
         <v>1.65</v>
@@ -4352,13 +4352,13 @@
         <v>252</v>
       </c>
       <c r="F28">
-        <v>2.55</v>
+        <v>2.16</v>
       </c>
       <c r="G28">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="H28">
-        <v>2.6</v>
+        <v>3.38</v>
       </c>
       <c r="I28">
         <v>1.07</v>
@@ -4373,10 +4373,10 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="N28">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O28">
         <v>1.4</v>
@@ -4400,10 +4400,10 @@
         <v>1.44</v>
       </c>
       <c r="V28">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="W28">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="X28">
         <v>1.3</v>
@@ -4456,13 +4456,13 @@
         <v>253</v>
       </c>
       <c r="F29">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G29">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H29">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I29">
         <v>1.07</v>
@@ -4477,10 +4477,10 @@
         <v>3.25</v>
       </c>
       <c r="M29">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="N29">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O29">
         <v>1.44</v>
@@ -4504,10 +4504,10 @@
         <v>1.8</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W29">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="X29">
         <v>1.84</v>
@@ -4560,13 +4560,13 @@
         <v>254</v>
       </c>
       <c r="F30">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="G30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H30">
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
       <c r="I30">
         <v>1.08</v>
@@ -4581,10 +4581,10 @@
         <v>3</v>
       </c>
       <c r="M30">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="N30">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O30">
         <v>1.44</v>
@@ -4608,10 +4608,10 @@
         <v>2.15</v>
       </c>
       <c r="V30">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="W30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>1.77</v>
@@ -4664,13 +4664,13 @@
         <v>255</v>
       </c>
       <c r="F31">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G31">
-        <v>2.9</v>
+        <v>2.43</v>
       </c>
       <c r="H31">
-        <v>3.45</v>
+        <v>4.33</v>
       </c>
       <c r="I31">
         <v>1.08</v>
@@ -4688,7 +4688,7 @@
         <v>2.3</v>
       </c>
       <c r="N31">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O31">
         <v>1.44</v>
@@ -4712,10 +4712,10 @@
         <v>1.7</v>
       </c>
       <c r="V31">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="W31">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="X31">
         <v>1.85</v>
@@ -4768,13 +4768,13 @@
         <v>256</v>
       </c>
       <c r="F32">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="G32">
-        <v>2.8</v>
+        <v>2.36</v>
       </c>
       <c r="H32">
-        <v>3.2</v>
+        <v>3.58</v>
       </c>
       <c r="I32">
         <v>1.08</v>
@@ -4789,10 +4789,10 @@
         <v>2.75</v>
       </c>
       <c r="M32">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O32">
         <v>1.44</v>
@@ -4816,10 +4816,10 @@
         <v>1.53</v>
       </c>
       <c r="V32">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="W32">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="X32">
         <v>1.37</v>
@@ -4872,13 +4872,13 @@
         <v>257</v>
       </c>
       <c r="F33">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H33">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I33">
         <v>1.08</v>
@@ -4893,10 +4893,10 @@
         <v>2.62</v>
       </c>
       <c r="M33">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N33">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O33">
         <v>1.44</v>
@@ -4920,10 +4920,10 @@
         <v>1.83</v>
       </c>
       <c r="V33">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="W33">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>1.5</v>
@@ -4976,13 +4976,13 @@
         <v>258</v>
       </c>
       <c r="F34">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="G34">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H34">
-        <v>3.74</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <v>1.02</v>
@@ -4997,10 +4997,10 @@
         <v>3.7</v>
       </c>
       <c r="M34">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="N34">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="O34">
         <v>1.36</v>
@@ -5024,10 +5024,10 @@
         <v>1.87</v>
       </c>
       <c r="V34">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W34">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="X34">
         <v>1.57</v>
@@ -5080,58 +5080,58 @@
         <v>259</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V35">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W35">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X35">
         <v>1.74</v>
@@ -5143,28 +5143,28 @@
         <v>3.35</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:34">
@@ -5187,10 +5187,10 @@
         <v>1.99</v>
       </c>
       <c r="G36">
+        <v>3.3</v>
+      </c>
+      <c r="H36">
         <v>3.25</v>
-      </c>
-      <c r="H36">
-        <v>3.7</v>
       </c>
       <c r="I36">
         <v>1.07</v>
@@ -5205,10 +5205,10 @@
         <v>3</v>
       </c>
       <c r="M36">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="N36">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="O36">
         <v>1.44</v>
@@ -5232,10 +5232,10 @@
         <v>1.78</v>
       </c>
       <c r="V36">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="W36">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X36">
         <v>1.7</v>
@@ -5256,7 +5256,7 @@
         <v>2.88</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE36">
         <v>1.67</v>
@@ -5268,7 +5268,7 @@
         <v>2.63</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="37" spans="1:34">
@@ -5288,13 +5288,13 @@
         <v>261</v>
       </c>
       <c r="F37">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="G37">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H37">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="I37">
         <v>1.06</v>
@@ -5309,10 +5309,10 @@
         <v>3.3</v>
       </c>
       <c r="M37">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="O37">
         <v>1.4</v>
@@ -5336,10 +5336,10 @@
         <v>2</v>
       </c>
       <c r="V37">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="W37">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="X37">
         <v>1.84</v>
@@ -5360,7 +5360,7 @@
         <v>3.95</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE37">
         <v>1.57</v>
@@ -5372,7 +5372,7 @@
         <v>2.43</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="38" spans="1:34">
@@ -5392,13 +5392,13 @@
         <v>262</v>
       </c>
       <c r="F38">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G38">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H38">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I38">
         <v>1.05</v>
@@ -5413,10 +5413,10 @@
         <v>3.75</v>
       </c>
       <c r="M38">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="N38">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="O38">
         <v>1.36</v>
@@ -5440,10 +5440,10 @@
         <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="W38">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="X38">
         <v>1.85</v>
@@ -5496,13 +5496,13 @@
         <v>263</v>
       </c>
       <c r="F39">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G39">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H39">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I39">
         <v>1.06</v>
@@ -5517,10 +5517,10 @@
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="N39">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="O39">
         <v>1.42</v>
@@ -5544,10 +5544,10 @@
         <v>1.7</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="X39">
         <v>1.63</v>
@@ -5600,13 +5600,13 @@
         <v>264</v>
       </c>
       <c r="F40">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G40">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H40">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>1.08</v>
@@ -5621,10 +5621,10 @@
         <v>2.9</v>
       </c>
       <c r="M40">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="N40">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="O40">
         <v>1.47</v>
@@ -5648,10 +5648,10 @@
         <v>1.4</v>
       </c>
       <c r="V40">
+        <v>1.33</v>
+      </c>
+      <c r="W40">
         <v>1.5</v>
-      </c>
-      <c r="W40">
-        <v>1.33</v>
       </c>
       <c r="X40">
         <v>1.78</v>
@@ -5704,13 +5704,13 @@
         <v>265</v>
       </c>
       <c r="F41">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="G41">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="H41">
-        <v>3.06</v>
+        <v>3.25</v>
       </c>
       <c r="I41">
         <v>1.06</v>
@@ -5725,10 +5725,10 @@
         <v>3.3</v>
       </c>
       <c r="M41">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="O41">
         <v>1.4</v>
@@ -5752,10 +5752,10 @@
         <v>1.72</v>
       </c>
       <c r="V41">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W41">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="X41">
         <v>1.58</v>
@@ -5808,13 +5808,13 @@
         <v>266</v>
       </c>
       <c r="F42">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G42">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H42">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="I42">
         <v>1.03</v>
@@ -5829,10 +5829,10 @@
         <v>4</v>
       </c>
       <c r="M42">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="O42">
         <v>1.3</v>
@@ -5856,10 +5856,10 @@
         <v>2.05</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X42">
         <v>1.65</v>
@@ -5871,13 +5871,13 @@
         <v>3.16</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AD42">
         <v>1.18</v>
@@ -5915,10 +5915,10 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H43">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="I43">
         <v>1.06</v>
@@ -5933,10 +5933,10 @@
         <v>3.5</v>
       </c>
       <c r="M43">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="N43">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="O43">
         <v>1.4</v>
@@ -5960,10 +5960,10 @@
         <v>1.35</v>
       </c>
       <c r="V43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W43">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X43">
         <v>1.75</v>
@@ -6016,10 +6016,10 @@
         <v>268</v>
       </c>
       <c r="F44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H44">
         <v>1.83</v>
@@ -6037,10 +6037,10 @@
         <v>3.3</v>
       </c>
       <c r="M44">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="N44">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O44">
         <v>1.4</v>
@@ -6064,10 +6064,10 @@
         <v>1.23</v>
       </c>
       <c r="V44">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="W44">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="X44">
         <v>1.57</v>
@@ -6120,13 +6120,13 @@
         <v>269</v>
       </c>
       <c r="F45">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="G45">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H45">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I45">
         <v>1.06</v>
@@ -6141,10 +6141,10 @@
         <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="N45">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="O45">
         <v>1.4</v>
@@ -6168,10 +6168,10 @@
         <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="W45">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X45">
         <v>1.6</v>
@@ -6224,13 +6224,13 @@
         <v>270</v>
       </c>
       <c r="F46">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="G46">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H46">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I46">
         <v>1.07</v>
@@ -6245,10 +6245,10 @@
         <v>3.1</v>
       </c>
       <c r="M46">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="N46">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="O46">
         <v>1.44</v>
@@ -6272,10 +6272,10 @@
         <v>2.1</v>
       </c>
       <c r="V46">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="X46">
         <v>1.7</v>
@@ -6328,13 +6328,13 @@
         <v>271</v>
       </c>
       <c r="F47">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="G47">
-        <v>9.75</v>
+        <v>9.9</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -6376,10 +6376,10 @@
         <v>6.25</v>
       </c>
       <c r="V47">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="W47">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="X47">
         <v>2.68</v>
@@ -6432,13 +6432,13 @@
         <v>272</v>
       </c>
       <c r="F48">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="G48">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H48">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="I48">
         <v>1.05</v>
@@ -6453,10 +6453,10 @@
         <v>3.6</v>
       </c>
       <c r="M48">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="N48">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="O48">
         <v>1.36</v>
@@ -6480,10 +6480,10 @@
         <v>1.9</v>
       </c>
       <c r="V48">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W48">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="X48">
         <v>2.01</v>
@@ -6536,13 +6536,13 @@
         <v>273</v>
       </c>
       <c r="F49">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G49">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H49">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I49">
         <v>1.03</v>
@@ -6557,7 +6557,7 @@
         <v>4</v>
       </c>
       <c r="M49">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="N49">
         <v>2.1</v>
@@ -6584,10 +6584,10 @@
         <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="W49">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>1.65</v>
@@ -6640,13 +6640,13 @@
         <v>274</v>
       </c>
       <c r="F50">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="G50">
-        <v>3.15</v>
+        <v>3.77</v>
       </c>
       <c r="H50">
-        <v>2.37</v>
+        <v>2.14</v>
       </c>
       <c r="I50">
         <v>1.03</v>
@@ -6661,10 +6661,10 @@
         <v>4.5</v>
       </c>
       <c r="M50">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="O50">
         <v>1.3</v>
@@ -6688,10 +6688,10 @@
         <v>1.38</v>
       </c>
       <c r="V50">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>1.9</v>
@@ -6744,13 +6744,13 @@
         <v>275</v>
       </c>
       <c r="F51">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="G51">
-        <v>3.45</v>
+        <v>4.15</v>
       </c>
       <c r="H51">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="I51">
         <v>1.01</v>
@@ -6765,10 +6765,10 @@
         <v>5.5</v>
       </c>
       <c r="M51">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="N51">
-        <v>2.77</v>
+        <v>2.28</v>
       </c>
       <c r="O51">
         <v>1.25</v>
@@ -6792,10 +6792,10 @@
         <v>1.25</v>
       </c>
       <c r="V51">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W51">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X51">
         <v>1.51</v>
@@ -6848,58 +6848,58 @@
         <v>276</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V52">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="W52">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X52">
         <v>1.27</v>
@@ -6952,58 +6952,58 @@
         <v>277</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V53">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="W53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X53">
         <v>1.3</v>
@@ -7056,13 +7056,13 @@
         <v>278</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -7104,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="W54">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="X54">
         <v>1.29</v>
@@ -7208,10 +7208,10 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="W55">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="X55">
         <v>1.23</v>
@@ -7264,13 +7264,13 @@
         <v>280</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -7368,13 +7368,13 @@
         <v>281</v>
       </c>
       <c r="F57">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G57">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I57">
         <v>1.04</v>
@@ -7389,10 +7389,10 @@
         <v>4</v>
       </c>
       <c r="M57">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="N57">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="O57">
         <v>1.33</v>
@@ -7416,10 +7416,10 @@
         <v>3.3</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="W57">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X57">
         <v>1.73</v>
@@ -7472,13 +7472,13 @@
         <v>282</v>
       </c>
       <c r="F58">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="G58">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H58">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="I58">
         <v>1.05</v>
@@ -7493,10 +7493,10 @@
         <v>3.25</v>
       </c>
       <c r="M58">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="N58">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="O58">
         <v>1.4</v>
@@ -7520,10 +7520,10 @@
         <v>1.41</v>
       </c>
       <c r="V58">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W58">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="X58">
         <v>1.79</v>
@@ -7576,13 +7576,13 @@
         <v>283</v>
       </c>
       <c r="F59">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G59">
-        <v>4.2</v>
+        <v>3.88</v>
       </c>
       <c r="H59">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I59">
         <v>1.03</v>
@@ -7597,10 +7597,10 @@
         <v>3.75</v>
       </c>
       <c r="M59">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="N59">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O59">
         <v>1.33</v>
@@ -7624,10 +7624,10 @@
         <v>2.5</v>
       </c>
       <c r="V59">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="X59">
         <v>1.59</v>
@@ -7680,13 +7680,13 @@
         <v>284</v>
       </c>
       <c r="F60">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="G60">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="H60">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I60">
         <v>1.04</v>
@@ -7701,10 +7701,10 @@
         <v>3.6</v>
       </c>
       <c r="M60">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="N60">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="O60">
         <v>1.36</v>
@@ -7728,10 +7728,10 @@
         <v>1.52</v>
       </c>
       <c r="V60">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="W60">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="X60">
         <v>1.62</v>
@@ -7784,13 +7784,13 @@
         <v>285</v>
       </c>
       <c r="F61">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="G61">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H61">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I61">
         <v>1.04</v>
@@ -7805,10 +7805,10 @@
         <v>3.5</v>
       </c>
       <c r="M61">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="N61">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="O61">
         <v>1.36</v>
@@ -7832,10 +7832,10 @@
         <v>1.87</v>
       </c>
       <c r="V61">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W61">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
         <v>1.52</v>
@@ -7888,13 +7888,13 @@
         <v>286</v>
       </c>
       <c r="F62">
-        <v>2.39</v>
+        <v>2.15</v>
       </c>
       <c r="G62">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="H62">
-        <v>2.59</v>
+        <v>2.87</v>
       </c>
       <c r="I62">
         <v>1.04</v>
@@ -7909,10 +7909,10 @@
         <v>3.4</v>
       </c>
       <c r="M62">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N62">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="O62">
         <v>1.36</v>
@@ -7936,10 +7936,10 @@
         <v>1.63</v>
       </c>
       <c r="V62">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W62">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="X62">
         <v>1.47</v>
@@ -7992,13 +7992,13 @@
         <v>287</v>
       </c>
       <c r="F63">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="G63">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="H63">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="I63">
         <v>1.05</v>
@@ -8013,10 +8013,10 @@
         <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="N63">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="O63">
         <v>1.39</v>
@@ -8040,10 +8040,10 @@
         <v>1.75</v>
       </c>
       <c r="V63">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="X63">
         <v>2.14</v>
@@ -8096,13 +8096,13 @@
         <v>288</v>
       </c>
       <c r="F64">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="G64">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="H64">
-        <v>2.59</v>
+        <v>2.9</v>
       </c>
       <c r="I64">
         <v>1.05</v>
@@ -8117,10 +8117,10 @@
         <v>3.25</v>
       </c>
       <c r="M64">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="N64">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="O64">
         <v>1.39</v>
@@ -8144,10 +8144,10 @@
         <v>1.68</v>
       </c>
       <c r="V64">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="W64">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="X64">
         <v>1.14</v>
@@ -8168,7 +8168,7 @@
         <v>2.28</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE64">
         <v>1.27</v>
@@ -8200,13 +8200,13 @@
         <v>289</v>
       </c>
       <c r="F65">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="G65">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="H65">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="I65">
         <v>1.06</v>
@@ -8221,10 +8221,10 @@
         <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="N65">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O65">
         <v>1.41</v>
@@ -8248,7 +8248,7 @@
         <v>1.57</v>
       </c>
       <c r="V65">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="W65">
         <v>1.13</v>
@@ -8304,13 +8304,13 @@
         <v>290</v>
       </c>
       <c r="F66">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="G66">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="H66">
-        <v>2.68</v>
+        <v>2.57</v>
       </c>
       <c r="I66">
         <v>1.04</v>
@@ -8325,10 +8325,10 @@
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="N66">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="O66">
         <v>1.36</v>
@@ -8352,10 +8352,10 @@
         <v>1.55</v>
       </c>
       <c r="V66">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W66">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="X66">
         <v>1.37</v>
@@ -8376,7 +8376,7 @@
         <v>1.82</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE66">
         <v>1.34</v>
@@ -8408,13 +8408,13 @@
         <v>291</v>
       </c>
       <c r="F67">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
       <c r="G67">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="H67">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="I67">
         <v>1.04</v>
@@ -8429,10 +8429,10 @@
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="N67">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="O67">
         <v>1.36</v>
@@ -8456,10 +8456,10 @@
         <v>1.66</v>
       </c>
       <c r="V67">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="X67">
         <v>1.9</v>
@@ -8512,13 +8512,13 @@
         <v>292</v>
       </c>
       <c r="F68">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="G68">
-        <v>3.3</v>
+        <v>3.43</v>
       </c>
       <c r="H68">
-        <v>3.25</v>
+        <v>3.58</v>
       </c>
       <c r="I68">
         <v>1.04</v>
@@ -8533,10 +8533,10 @@
         <v>3.6</v>
       </c>
       <c r="M68">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="N68">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="O68">
         <v>1.36</v>
@@ -8560,10 +8560,10 @@
         <v>1.78</v>
       </c>
       <c r="V68">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="W68">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="X68">
         <v>1.83</v>
@@ -8584,7 +8584,7 @@
         <v>2.43</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE68">
         <v>1.31</v>
@@ -8616,13 +8616,13 @@
         <v>293</v>
       </c>
       <c r="F69">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="G69">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="H69">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I69">
         <v>1.05</v>
@@ -8637,10 +8637,10 @@
         <v>3.25</v>
       </c>
       <c r="M69">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="N69">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="O69">
         <v>1.39</v>
@@ -8664,10 +8664,10 @@
         <v>1.68</v>
       </c>
       <c r="V69">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="W69">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="X69">
         <v>1.4</v>
@@ -8720,13 +8720,13 @@
         <v>294</v>
       </c>
       <c r="F70">
-        <v>2.66</v>
+        <v>2.93</v>
       </c>
       <c r="G70">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="H70">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="I70">
         <v>1.05</v>
@@ -8741,10 +8741,10 @@
         <v>3.4</v>
       </c>
       <c r="M70">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="N70">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="O70">
         <v>1.37</v>
@@ -8768,10 +8768,10 @@
         <v>1.36</v>
       </c>
       <c r="V70">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X70">
         <v>1.8</v>
@@ -8792,7 +8792,7 @@
         <v>1.75</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE70">
         <v>1.26</v>
@@ -8824,13 +8824,13 @@
         <v>295</v>
       </c>
       <c r="F71">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="G71">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="I71">
         <v>1.02</v>
@@ -8872,10 +8872,10 @@
         <v>3.2</v>
       </c>
       <c r="V71">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="W71">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="X71">
         <v>1.74</v>
@@ -8887,13 +8887,13 @@
         <v>3.1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AD71">
         <v>1.29</v>
@@ -8928,13 +8928,13 @@
         <v>296</v>
       </c>
       <c r="F72">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H72">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="I72">
         <v>1.07</v>
@@ -8949,10 +8949,10 @@
         <v>2.85</v>
       </c>
       <c r="M72">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N72">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O72">
         <v>1.46</v>
@@ -8976,10 +8976,10 @@
         <v>1.44</v>
       </c>
       <c r="V72">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="W72">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X72">
         <v>1.28</v>
@@ -9032,13 +9032,13 @@
         <v>297</v>
       </c>
       <c r="F73">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="G73">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H73">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="I73">
         <v>1.08</v>
@@ -9053,10 +9053,10 @@
         <v>2.75</v>
       </c>
       <c r="M73">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N73">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O73">
         <v>1.48</v>
@@ -9080,10 +9080,10 @@
         <v>1.63</v>
       </c>
       <c r="V73">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="W73">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="X73">
         <v>1.51</v>
@@ -9136,13 +9136,13 @@
         <v>298</v>
       </c>
       <c r="F74">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="G74">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H74">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="I74">
         <v>1.06</v>
@@ -9157,10 +9157,10 @@
         <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N74">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="O74">
         <v>1.42</v>
@@ -9184,7 +9184,7 @@
         <v>1.57</v>
       </c>
       <c r="V74">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W74">
         <v>1</v>
@@ -9240,13 +9240,13 @@
         <v>299</v>
       </c>
       <c r="F75">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="G75">
         <v>3.3</v>
       </c>
       <c r="H75">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I75">
         <v>1.06</v>
@@ -9261,10 +9261,10 @@
         <v>3.2</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N75">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O75">
         <v>1.42</v>
@@ -9288,10 +9288,10 @@
         <v>1.78</v>
       </c>
       <c r="V75">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="W75">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="X75">
         <v>1.66</v>
@@ -9344,13 +9344,13 @@
         <v>300</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="G76">
         <v>3.5</v>
       </c>
       <c r="H76">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="I76">
         <v>1.05</v>
@@ -9365,10 +9365,10 @@
         <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N76">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O76">
         <v>1.37</v>
@@ -9392,10 +9392,10 @@
         <v>1.2</v>
       </c>
       <c r="V76">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="W76">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="X76">
         <v>1.55</v>
@@ -9448,13 +9448,13 @@
         <v>301</v>
       </c>
       <c r="F77">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="G77">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H77">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="I77">
         <v>1.07</v>
@@ -9472,7 +9472,7 @@
         <v>2.1</v>
       </c>
       <c r="N77">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O77">
         <v>1.44</v>
@@ -9499,7 +9499,7 @@
         <v>1</v>
       </c>
       <c r="W77">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="X77">
         <v>1.48</v>
@@ -9552,13 +9552,13 @@
         <v>302</v>
       </c>
       <c r="F78">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="G78">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H78">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="I78">
         <v>1.06</v>
@@ -9573,10 +9573,10 @@
         <v>3</v>
       </c>
       <c r="M78">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N78">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="O78">
         <v>1.44</v>
@@ -9600,10 +9600,10 @@
         <v>2.15</v>
       </c>
       <c r="V78">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="W78">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="X78">
         <v>1.56</v>
@@ -9656,13 +9656,13 @@
         <v>303</v>
       </c>
       <c r="F79">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="G79">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H79">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="I79">
         <v>1.07</v>
@@ -9677,10 +9677,10 @@
         <v>2.95</v>
       </c>
       <c r="M79">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O79">
         <v>1.45</v>
@@ -9704,10 +9704,10 @@
         <v>1.28</v>
       </c>
       <c r="V79">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="W79">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="X79">
         <v>1.26</v>
@@ -9760,13 +9760,13 @@
         <v>304</v>
       </c>
       <c r="F80">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="G80">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H80">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="I80">
         <v>1.06</v>
@@ -9784,7 +9784,7 @@
         <v>2.1</v>
       </c>
       <c r="N80">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O80">
         <v>1.42</v>
@@ -9808,10 +9808,10 @@
         <v>2.04</v>
       </c>
       <c r="V80">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="W80">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="X80">
         <v>1.74</v>
@@ -9864,13 +9864,13 @@
         <v>305</v>
       </c>
       <c r="F81">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="G81">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H81">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I81">
         <v>1.06</v>
@@ -9885,10 +9885,10 @@
         <v>3.2</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N81">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="O81">
         <v>1.42</v>
@@ -9912,10 +9912,10 @@
         <v>1.75</v>
       </c>
       <c r="V81">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="W81">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="X81">
         <v>1.73</v>
@@ -9968,13 +9968,13 @@
         <v>306</v>
       </c>
       <c r="F82">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="G82">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="H82">
-        <v>2.76</v>
+        <v>3.6</v>
       </c>
       <c r="I82">
         <v>1.09</v>
@@ -9989,10 +9989,10 @@
         <v>2.7</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N82">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="O82">
         <v>1.5</v>
@@ -10016,10 +10016,10 @@
         <v>1.63</v>
       </c>
       <c r="V82">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W82">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="X82">
         <v>1.39</v>
@@ -10072,13 +10072,13 @@
         <v>307</v>
       </c>
       <c r="F83">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="G83">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="H83">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="I83">
         <v>1.11</v>
@@ -10087,16 +10087,16 @@
         <v>7</v>
       </c>
       <c r="K83">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="L83">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M83">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O83">
         <v>1.56</v>
@@ -10120,10 +10120,10 @@
         <v>1.55</v>
       </c>
       <c r="V83">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X83">
         <v>1.59</v>
@@ -10176,13 +10176,13 @@
         <v>308</v>
       </c>
       <c r="F84">
-        <v>2.39</v>
+        <v>2.07</v>
       </c>
       <c r="G84">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H84">
-        <v>2.71</v>
+        <v>3.11</v>
       </c>
       <c r="I84">
         <v>1.07</v>
@@ -10197,10 +10197,10 @@
         <v>3</v>
       </c>
       <c r="M84">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N84">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="O84">
         <v>1.46</v>
@@ -10227,7 +10227,7 @@
         <v>0.93</v>
       </c>
       <c r="W84">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X84">
         <v>1.39</v>
@@ -10280,13 +10280,13 @@
         <v>309</v>
       </c>
       <c r="F85">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="G85">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="H85">
-        <v>2.37</v>
+        <v>2.28</v>
       </c>
       <c r="I85">
         <v>1.05</v>
@@ -10301,10 +10301,10 @@
         <v>3.4</v>
       </c>
       <c r="M85">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="N85">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="O85">
         <v>1.39</v>
@@ -10328,10 +10328,10 @@
         <v>1.39</v>
       </c>
       <c r="V85">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="W85">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="X85">
         <v>1.4</v>
@@ -10384,13 +10384,13 @@
         <v>310</v>
       </c>
       <c r="F86">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="G86">
-        <v>3.8</v>
+        <v>3.93</v>
       </c>
       <c r="H86">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="I86">
         <v>1.06</v>
@@ -10405,10 +10405,10 @@
         <v>3.2</v>
       </c>
       <c r="M86">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="O86">
         <v>1.42</v>
@@ -10432,10 +10432,10 @@
         <v>2.5</v>
       </c>
       <c r="V86">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="W86">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="X86">
         <v>1.76</v>
@@ -10488,13 +10488,13 @@
         <v>311</v>
       </c>
       <c r="F87">
-        <v>2.99</v>
+        <v>3.21</v>
       </c>
       <c r="G87">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="H87">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="I87">
         <v>1.06</v>
@@ -10509,10 +10509,10 @@
         <v>3.2</v>
       </c>
       <c r="M87">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O87">
         <v>1.42</v>
@@ -10536,10 +10536,10 @@
         <v>1.31</v>
       </c>
       <c r="V87">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="W87">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="X87">
         <v>1.6</v>
@@ -10592,13 +10592,13 @@
         <v>312</v>
       </c>
       <c r="F88">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="G88">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H88">
-        <v>2.82</v>
+        <v>3.01</v>
       </c>
       <c r="I88">
         <v>1.06</v>
@@ -10613,10 +10613,10 @@
         <v>3.2</v>
       </c>
       <c r="M88">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N88">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O88">
         <v>1.41</v>
@@ -10640,10 +10640,10 @@
         <v>1.63</v>
       </c>
       <c r="V88">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W88">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="X88">
         <v>1.6</v>
@@ -10696,13 +10696,13 @@
         <v>313</v>
       </c>
       <c r="F89">
-        <v>2.57</v>
+        <v>2.33</v>
       </c>
       <c r="G89">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H89">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="I89">
         <v>1.07</v>
@@ -10717,10 +10717,10 @@
         <v>3</v>
       </c>
       <c r="M89">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N89">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O89">
         <v>1.46</v>
@@ -10744,10 +10744,10 @@
         <v>1.49</v>
       </c>
       <c r="V89">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="W89">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="X89">
         <v>1.7</v>
@@ -10800,13 +10800,13 @@
         <v>314</v>
       </c>
       <c r="F90">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="G90">
         <v>3.45</v>
       </c>
       <c r="H90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I90">
         <v>1.05</v>
@@ -10821,10 +10821,10 @@
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="N90">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="O90">
         <v>1.4</v>
@@ -10848,10 +10848,10 @@
         <v>1.88</v>
       </c>
       <c r="V90">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="W90">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="X90">
         <v>2.02</v>
@@ -10904,13 +10904,13 @@
         <v>315</v>
       </c>
       <c r="F91">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="G91">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H91">
-        <v>2.94</v>
+        <v>3.5</v>
       </c>
       <c r="I91">
         <v>1.07</v>
@@ -10925,10 +10925,10 @@
         <v>3</v>
       </c>
       <c r="M91">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N91">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O91">
         <v>1.46</v>
@@ -10955,7 +10955,7 @@
         <v>1.07</v>
       </c>
       <c r="W91">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X91">
         <v>1.66</v>
@@ -11008,13 +11008,13 @@
         <v>316</v>
       </c>
       <c r="F92">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G92">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I92">
         <v>1.06</v>
@@ -11032,7 +11032,7 @@
         <v>2</v>
       </c>
       <c r="N92">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O92">
         <v>1.41</v>
@@ -11056,10 +11056,10 @@
         <v>1.92</v>
       </c>
       <c r="V92">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="W92">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X92">
         <v>1.5</v>
@@ -11112,13 +11112,13 @@
         <v>317</v>
       </c>
       <c r="F93">
-        <v>2.17</v>
+        <v>1.94</v>
       </c>
       <c r="G93">
         <v>3.3</v>
       </c>
       <c r="H93">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="I93">
         <v>1.07</v>
@@ -11133,10 +11133,10 @@
         <v>3.1</v>
       </c>
       <c r="M93">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N93">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O93">
         <v>1.44</v>
@@ -11160,10 +11160,10 @@
         <v>1.82</v>
       </c>
       <c r="V93">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="W93">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X93">
         <v>1.53</v>
@@ -11216,13 +11216,13 @@
         <v>318</v>
       </c>
       <c r="F94">
-        <v>2.52</v>
+        <v>2.23</v>
       </c>
       <c r="G94">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H94">
-        <v>2.68</v>
+        <v>2.87</v>
       </c>
       <c r="I94">
         <v>1.08</v>
@@ -11237,10 +11237,10 @@
         <v>2.8</v>
       </c>
       <c r="M94">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N94">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O94">
         <v>1.48</v>
@@ -11264,10 +11264,10 @@
         <v>1.63</v>
       </c>
       <c r="V94">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="W94">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="X94">
         <v>1.3</v>
@@ -11320,13 +11320,13 @@
         <v>319</v>
       </c>
       <c r="F95">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="G95">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H95">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="I95">
         <v>1.03</v>
@@ -11341,10 +11341,10 @@
         <v>4.3</v>
       </c>
       <c r="M95">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="N95">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
         <v>1.33</v>
@@ -11368,10 +11368,10 @@
         <v>2.95</v>
       </c>
       <c r="V95">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="W95">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X95">
         <v>2.38</v>
@@ -11424,13 +11424,13 @@
         <v>320</v>
       </c>
       <c r="F96">
+        <v>3.35</v>
+      </c>
+      <c r="G96">
         <v>3.15</v>
       </c>
-      <c r="G96">
-        <v>3.25</v>
-      </c>
       <c r="H96">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
       <c r="I96">
         <v>1.07</v>
@@ -11445,10 +11445,10 @@
         <v>3.35</v>
       </c>
       <c r="M96">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O96">
         <v>1.44</v>
@@ -11472,10 +11472,10 @@
         <v>1.28</v>
       </c>
       <c r="V96">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W96">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="X96">
         <v>1.47</v>
@@ -11528,13 +11528,13 @@
         <v>321</v>
       </c>
       <c r="F97">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G97">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I97">
         <v>1.06</v>
@@ -11549,10 +11549,10 @@
         <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="N97">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O97">
         <v>1.4</v>
@@ -11576,10 +11576,10 @@
         <v>1.83</v>
       </c>
       <c r="V97">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="W97">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="X97">
         <v>1.63</v>
@@ -11632,13 +11632,13 @@
         <v>322</v>
       </c>
       <c r="F98">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="G98">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="H98">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="I98">
         <v>1.05</v>
@@ -11653,10 +11653,10 @@
         <v>4</v>
       </c>
       <c r="M98">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="N98">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
         <v>1.36</v>
@@ -11680,10 +11680,10 @@
         <v>1.3</v>
       </c>
       <c r="V98">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="W98">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="X98">
         <v>1.35</v>
@@ -11736,13 +11736,13 @@
         <v>323</v>
       </c>
       <c r="F99">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="G99">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="H99">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="I99">
         <v>1.09</v>
@@ -11757,7 +11757,7 @@
         <v>2.94</v>
       </c>
       <c r="M99">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N99">
         <v>1.6</v>
@@ -11784,10 +11784,10 @@
         <v>1.43</v>
       </c>
       <c r="V99">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W99">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="X99">
         <v>1.59</v>
@@ -11840,13 +11840,13 @@
         <v>324</v>
       </c>
       <c r="F100">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="G100">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="H100">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I100">
         <v>1.07</v>
@@ -11861,10 +11861,10 @@
         <v>2.47</v>
       </c>
       <c r="M100">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="N100">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="O100">
         <v>1.58</v>
@@ -11888,10 +11888,10 @@
         <v>1.57</v>
       </c>
       <c r="V100">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="W100">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="X100">
         <v>1.09</v>
@@ -11903,28 +11903,28 @@
         <v>2.29</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC100">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD100">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE100">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF100">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG100">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH100">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="101" spans="1:34">
@@ -11944,13 +11944,13 @@
         <v>325</v>
       </c>
       <c r="F101">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="G101">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="H101">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="I101">
         <v>1.05</v>
@@ -11965,10 +11965,10 @@
         <v>3.4</v>
       </c>
       <c r="M101">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="N101">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="O101">
         <v>1.4</v>
@@ -11992,7 +11992,7 @@
         <v>1.73</v>
       </c>
       <c r="V101">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>0</v>
@@ -12063,10 +12063,10 @@
         <v>5.5</v>
       </c>
       <c r="K102">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L102">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M102">
         <v>2.61</v>
@@ -12096,10 +12096,10 @@
         <v>1.4</v>
       </c>
       <c r="V102">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="W102">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="X102">
         <v>1.66</v>
@@ -12152,13 +12152,13 @@
         <v>327</v>
       </c>
       <c r="F103">
-        <v>2.79</v>
+        <v>2.67</v>
       </c>
       <c r="G103">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="H103">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="I103">
         <v>1.06</v>
@@ -12173,10 +12173,10 @@
         <v>3.3</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="N103">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="O103">
         <v>1.4</v>
@@ -12200,10 +12200,10 @@
         <v>1.4</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="W103">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X103">
         <v>1.42</v>
@@ -12256,10 +12256,10 @@
         <v>328</v>
       </c>
       <c r="F104">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G104">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="H104">
         <v>3.1</v>
@@ -12277,7 +12277,7 @@
         <v>2.75</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N104">
         <v>1.53</v>
@@ -12304,10 +12304,10 @@
         <v>1.5</v>
       </c>
       <c r="V104">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="W104">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="X104">
         <v>1.42</v>
@@ -12360,13 +12360,13 @@
         <v>329</v>
       </c>
       <c r="F105">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="G105">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H105">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="I105">
         <v>1.07</v>
@@ -12381,10 +12381,10 @@
         <v>3.25</v>
       </c>
       <c r="M105">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N105">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O105">
         <v>1.4</v>
@@ -12408,7 +12408,7 @@
         <v>1.36</v>
       </c>
       <c r="V105">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W105">
         <v>1</v>
@@ -12464,13 +12464,13 @@
         <v>330</v>
       </c>
       <c r="F106">
-        <v>3.95</v>
+        <v>4.04</v>
       </c>
       <c r="G106">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H106">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="I106">
         <v>1.08</v>
@@ -12485,10 +12485,10 @@
         <v>2.95</v>
       </c>
       <c r="M106">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="N106">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O106">
         <v>1.44</v>
@@ -12512,10 +12512,10 @@
         <v>1.26</v>
       </c>
       <c r="V106">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="W106">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="X106">
         <v>1.47</v>
@@ -12568,13 +12568,13 @@
         <v>331</v>
       </c>
       <c r="F107">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="G107">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="H107">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I107">
         <v>1.08</v>
@@ -12589,10 +12589,10 @@
         <v>2.9</v>
       </c>
       <c r="M107">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="N107">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="O107">
         <v>1.44</v>
@@ -12616,10 +12616,10 @@
         <v>2.05</v>
       </c>
       <c r="V107">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W107">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="X107">
         <v>1.54</v>
@@ -12672,13 +12672,13 @@
         <v>332</v>
       </c>
       <c r="F108">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="G108">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H108">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="I108">
         <v>1.03</v>
@@ -12693,10 +12693,10 @@
         <v>4.5</v>
       </c>
       <c r="M108">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="N108">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="O108">
         <v>1.3</v>
@@ -12720,10 +12720,10 @@
         <v>1.37</v>
       </c>
       <c r="V108">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="W108">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="X108">
         <v>1.46</v>
@@ -12776,13 +12776,13 @@
         <v>333</v>
       </c>
       <c r="F109">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="G109">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="H109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -12824,10 +12824,10 @@
         <v>0</v>
       </c>
       <c r="V109">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="W109">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="X109">
         <v>1.86</v>
@@ -12880,13 +12880,13 @@
         <v>334</v>
       </c>
       <c r="F110">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G110">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H110">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -12901,10 +12901,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="N110">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -12928,10 +12928,10 @@
         <v>0</v>
       </c>
       <c r="V110">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="W110">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X110">
         <v>1.17</v>
@@ -12984,58 +12984,58 @@
         <v>335</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P111">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R111">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S111">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T111">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U111">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V111">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="W111">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X111">
         <v>1.94</v>
@@ -13047,28 +13047,28 @@
         <v>3.12</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC111">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AD111">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AE111">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF111">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AG111">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AH111">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="112" spans="1:34">
@@ -13088,13 +13088,13 @@
         <v>336</v>
       </c>
       <c r="F112">
-        <v>3.02</v>
+        <v>3.3</v>
       </c>
       <c r="G112">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="H112">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I112">
         <v>1.03</v>
@@ -13109,10 +13109,10 @@
         <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O112">
         <v>1.36</v>
@@ -13136,10 +13136,10 @@
         <v>1.26</v>
       </c>
       <c r="V112">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="W112">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X112">
         <v>1.69</v>
@@ -13192,13 +13192,13 @@
         <v>337</v>
       </c>
       <c r="F113">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G113">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H113">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="I113">
         <v>1.04</v>
@@ -13213,10 +13213,10 @@
         <v>4</v>
       </c>
       <c r="M113">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="N113">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O113">
         <v>1.33</v>
@@ -13240,10 +13240,10 @@
         <v>1.57</v>
       </c>
       <c r="V113">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="W113">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="X113">
         <v>1.98</v>
@@ -13255,28 +13255,28 @@
         <v>3.57</v>
       </c>
       <c r="AA113">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC113">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AD113">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE113">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF113">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG113">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH113">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="114" spans="1:34">
@@ -13296,13 +13296,13 @@
         <v>338</v>
       </c>
       <c r="F114">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G114">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H114">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I114">
         <v>1.03</v>
@@ -13317,10 +13317,10 @@
         <v>4.2</v>
       </c>
       <c r="M114">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="N114">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="O114">
         <v>1.31</v>
@@ -13344,10 +13344,10 @@
         <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="X114">
         <v>1.58</v>
@@ -13400,13 +13400,13 @@
         <v>339</v>
       </c>
       <c r="F115">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="G115">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H115">
-        <v>12.8</v>
+        <v>17</v>
       </c>
       <c r="I115">
         <v>1.02</v>
@@ -13451,7 +13451,7 @@
         <v>3</v>
       </c>
       <c r="W115">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X115">
         <v>2.31</v>
@@ -13472,7 +13472,7 @@
         <v>11</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE115">
         <v>1.22</v>
@@ -13504,13 +13504,13 @@
         <v>340</v>
       </c>
       <c r="F116">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="G116">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H116">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="I116">
         <v>1.09</v>
@@ -13525,10 +13525,10 @@
         <v>2.8</v>
       </c>
       <c r="M116">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="N116">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="O116">
         <v>1.5</v>
@@ -13552,10 +13552,10 @@
         <v>1.23</v>
       </c>
       <c r="V116">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W116">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X116">
         <v>1.39</v>
@@ -13608,13 +13608,13 @@
         <v>341</v>
       </c>
       <c r="F117">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="G117">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="H117">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="I117">
         <v>1.07</v>
@@ -13623,10 +13623,10 @@
         <v>6.5</v>
       </c>
       <c r="K117">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="L117">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M117">
         <v>2.44</v>
@@ -13656,10 +13656,10 @@
         <v>1.73</v>
       </c>
       <c r="V117">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="W117">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="X117">
         <v>1.27</v>
@@ -13712,13 +13712,13 @@
         <v>342</v>
       </c>
       <c r="F118">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H118">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="I118">
         <v>1.03</v>
@@ -13733,10 +13733,10 @@
         <v>3.75</v>
       </c>
       <c r="M118">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="N118">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="O118">
         <v>1.36</v>
@@ -13760,10 +13760,10 @@
         <v>2.45</v>
       </c>
       <c r="V118">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="W118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X118">
         <v>1.47</v>
@@ -13816,10 +13816,10 @@
         <v>343</v>
       </c>
       <c r="F119">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="G119">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="H119">
         <v>20</v>
@@ -13837,10 +13837,10 @@
         <v>4.75</v>
       </c>
       <c r="M119">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="N119">
-        <v>2.41</v>
+        <v>2.54</v>
       </c>
       <c r="O119">
         <v>1.27</v>
@@ -13864,10 +13864,10 @@
         <v>4.8</v>
       </c>
       <c r="V119">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W119">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="X119">
         <v>2.21</v>
@@ -13920,13 +13920,13 @@
         <v>344</v>
       </c>
       <c r="F120">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="G120">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="H120">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I120">
         <v>1.1</v>
@@ -13941,10 +13941,10 @@
         <v>2.62</v>
       </c>
       <c r="M120">
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
       <c r="N120">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O120">
         <v>1.5</v>
@@ -13968,10 +13968,10 @@
         <v>1.65</v>
       </c>
       <c r="V120">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="W120">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X120">
         <v>1.59</v>
@@ -14024,13 +14024,13 @@
         <v>345</v>
       </c>
       <c r="F121">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G121">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H121">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="I121">
         <v>1.1</v>
@@ -14045,10 +14045,10 @@
         <v>2.35</v>
       </c>
       <c r="M121">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="N121">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="O121">
         <v>1.53</v>
@@ -14072,10 +14072,10 @@
         <v>2</v>
       </c>
       <c r="V121">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="X121">
         <v>1.61</v>
@@ -14128,13 +14128,13 @@
         <v>346</v>
       </c>
       <c r="F122">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G122">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H122">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="I122">
         <v>1.06</v>
@@ -14149,10 +14149,10 @@
         <v>3.25</v>
       </c>
       <c r="M122">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="O122">
         <v>1.44</v>
@@ -14176,10 +14176,10 @@
         <v>2.05</v>
       </c>
       <c r="V122">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="W122">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="X122">
         <v>1.72</v>
@@ -14232,13 +14232,13 @@
         <v>347</v>
       </c>
       <c r="F123">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="G123">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H123">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I123">
         <v>1.12</v>
@@ -14247,16 +14247,16 @@
         <v>6.5</v>
       </c>
       <c r="K123">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L123">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="M123">
-        <v>2.27</v>
+        <v>2.63</v>
       </c>
       <c r="N123">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="O123">
         <v>1.62</v>
@@ -14280,10 +14280,10 @@
         <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W123">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X123">
         <v>1.9</v>
@@ -14336,13 +14336,13 @@
         <v>348</v>
       </c>
       <c r="F124">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="G124">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H124">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="I124">
         <v>1.06</v>
@@ -14357,10 +14357,10 @@
         <v>3.5</v>
       </c>
       <c r="M124">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="N124">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
         <v>1.4</v>
@@ -14384,10 +14384,10 @@
         <v>1.11</v>
       </c>
       <c r="V124">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W124">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="X124">
         <v>1.2</v>
@@ -14440,13 +14440,13 @@
         <v>349</v>
       </c>
       <c r="F125">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="G125">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="H125">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="I125">
         <v>1.05</v>
@@ -14461,10 +14461,10 @@
         <v>3.35</v>
       </c>
       <c r="M125">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="O125">
         <v>1.39</v>
@@ -14488,7 +14488,7 @@
         <v>2.1</v>
       </c>
       <c r="V125">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W125">
         <v>1</v>
@@ -14544,13 +14544,13 @@
         <v>350</v>
       </c>
       <c r="F126">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="G126">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H126">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I126">
         <v>1.1</v>
@@ -14565,10 +14565,10 @@
         <v>2.75</v>
       </c>
       <c r="M126">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="N126">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="O126">
         <v>1.49</v>
@@ -14592,7 +14592,7 @@
         <v>1.58</v>
       </c>
       <c r="V126">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W126">
         <v>1</v>
@@ -14625,10 +14625,10 @@
         <v>2.63</v>
       </c>
       <c r="AG126">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AH126">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="127" spans="1:34">
@@ -14648,13 +14648,13 @@
         <v>351</v>
       </c>
       <c r="F127">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="G127">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H127">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="I127">
         <v>1.1</v>
@@ -14669,10 +14669,10 @@
         <v>2.7</v>
       </c>
       <c r="M127">
-        <v>2.27</v>
+        <v>2.41</v>
       </c>
       <c r="N127">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="O127">
         <v>1.53</v>
@@ -14696,10 +14696,10 @@
         <v>1.49</v>
       </c>
       <c r="V127">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X127">
         <v>1.73</v>
@@ -14729,10 +14729,10 @@
         <v>2.38</v>
       </c>
       <c r="AG127">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AH127">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="128" spans="1:34">
@@ -14752,13 +14752,13 @@
         <v>352</v>
       </c>
       <c r="F128">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G128">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="H128">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="I128">
         <v>1.1</v>
@@ -14773,10 +14773,10 @@
         <v>2.75</v>
       </c>
       <c r="M128">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="N128">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="O128">
         <v>1.49</v>
@@ -14836,7 +14836,7 @@
         <v>2.63</v>
       </c>
       <c r="AH128">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="129" spans="1:34">
@@ -14856,13 +14856,13 @@
         <v>353</v>
       </c>
       <c r="F129">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="G129">
+        <v>2.85</v>
+      </c>
+      <c r="H129">
         <v>3.05</v>
-      </c>
-      <c r="H129">
-        <v>3.1</v>
       </c>
       <c r="I129">
         <v>1.11</v>
@@ -14877,10 +14877,10 @@
         <v>2.65</v>
       </c>
       <c r="M129">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="N129">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="O129">
         <v>1.53</v>
@@ -14904,10 +14904,10 @@
         <v>1.55</v>
       </c>
       <c r="V129">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="W129">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="X129">
         <v>1.24</v>
@@ -14937,10 +14937,10 @@
         <v>2.2</v>
       </c>
       <c r="AG129">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH129">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="130" spans="1:34">
@@ -14960,13 +14960,13 @@
         <v>354</v>
       </c>
       <c r="F130">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="G130">
-        <v>2.69</v>
+        <v>2.88</v>
       </c>
       <c r="H130">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I130">
         <v>1.12</v>
@@ -14975,16 +14975,16 @@
         <v>6</v>
       </c>
       <c r="K130">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="L130">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="M130">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="N130">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="O130">
         <v>1.58</v>
@@ -15008,10 +15008,10 @@
         <v>1.65</v>
       </c>
       <c r="V130">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="W130">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X130">
         <v>1.3</v>
@@ -15041,10 +15041,10 @@
         <v>2.38</v>
       </c>
       <c r="AG130">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH130">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:34">
@@ -15064,13 +15064,13 @@
         <v>355</v>
       </c>
       <c r="F131">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="G131">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="H131">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I131">
         <v>1.1</v>
@@ -15079,16 +15079,16 @@
         <v>7</v>
       </c>
       <c r="K131">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="L131">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="M131">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="N131">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="O131">
         <v>1.55</v>
@@ -15112,10 +15112,10 @@
         <v>1.68</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W131">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="X131">
         <v>1.56</v>
@@ -15145,10 +15145,10 @@
         <v>2.4</v>
       </c>
       <c r="AG131">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AH131">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="132" spans="1:34">
@@ -15168,13 +15168,13 @@
         <v>356</v>
       </c>
       <c r="F132">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="G132">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H132">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I132">
         <v>1.1</v>
@@ -15189,10 +15189,10 @@
         <v>2.8</v>
       </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="N132">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O132">
         <v>1.51</v>
@@ -15216,10 +15216,10 @@
         <v>1.8</v>
       </c>
       <c r="V132">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="W132">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="X132">
         <v>1.4</v>
@@ -15249,10 +15249,10 @@
         <v>2.38</v>
       </c>
       <c r="AG132">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH132">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:34">
@@ -15272,13 +15272,13 @@
         <v>357</v>
       </c>
       <c r="F133">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G133">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="H133">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="I133">
         <v>1.09</v>
@@ -15293,10 +15293,10 @@
         <v>2.7</v>
       </c>
       <c r="M133">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
         <v>1.49</v>
@@ -15320,10 +15320,10 @@
         <v>1.44</v>
       </c>
       <c r="V133">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="W133">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="X133">
         <v>1.93</v>
@@ -15376,13 +15376,13 @@
         <v>358</v>
       </c>
       <c r="F134">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="G134">
-        <v>3.26</v>
+        <v>3.15</v>
       </c>
       <c r="H134">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="I134">
         <v>1.07</v>
@@ -15397,7 +15397,7 @@
         <v>2.85</v>
       </c>
       <c r="M134">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="N134">
         <v>1.6</v>
@@ -15424,10 +15424,10 @@
         <v>1.68</v>
       </c>
       <c r="V134">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="W134">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X134">
         <v>1.33</v>
@@ -15480,13 +15480,13 @@
         <v>359</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G135">
         <v>3.25</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I135">
         <v>1.07</v>
@@ -15501,10 +15501,10 @@
         <v>2.85</v>
       </c>
       <c r="M135">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="N135">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O135">
         <v>1.46</v>
@@ -15528,10 +15528,10 @@
         <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W135">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="X135">
         <v>1.34</v>
@@ -15584,13 +15584,13 @@
         <v>360</v>
       </c>
       <c r="F136">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="G136">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H136">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I136">
         <v>1.08</v>
@@ -15605,10 +15605,10 @@
         <v>2.9</v>
       </c>
       <c r="M136">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="N136">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O136">
         <v>1.44</v>
@@ -15632,10 +15632,10 @@
         <v>1.21</v>
       </c>
       <c r="V136">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="W136">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="X136">
         <v>1.34</v>
@@ -15665,10 +15665,10 @@
         <v>2.2</v>
       </c>
       <c r="AG136">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH136">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="137" spans="1:34">
@@ -15688,13 +15688,13 @@
         <v>361</v>
       </c>
       <c r="F137">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="G137">
-        <v>3.16</v>
+        <v>3.35</v>
       </c>
       <c r="H137">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="I137">
         <v>1.04</v>
@@ -15709,10 +15709,10 @@
         <v>3.7</v>
       </c>
       <c r="M137">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="N137">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="O137">
         <v>1.36</v>
@@ -15736,10 +15736,10 @@
         <v>1.32</v>
       </c>
       <c r="V137">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="W137">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X137">
         <v>1.84</v>
@@ -15792,10 +15792,10 @@
         <v>362</v>
       </c>
       <c r="F138">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G138">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="H138">
         <v>15</v>
@@ -15840,10 +15840,10 @@
         <v>5.5</v>
       </c>
       <c r="V138">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W138">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X138">
         <v>2.24</v>
@@ -15896,13 +15896,13 @@
         <v>363</v>
       </c>
       <c r="F139">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="G139">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H139">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="I139">
         <v>1.04</v>
@@ -15917,10 +15917,10 @@
         <v>4</v>
       </c>
       <c r="M139">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="N139">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="O139">
         <v>1.33</v>
@@ -15944,10 +15944,10 @@
         <v>1.42</v>
       </c>
       <c r="V139">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="W139">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="X139">
         <v>1.76</v>
@@ -16000,13 +16000,13 @@
         <v>364</v>
       </c>
       <c r="F140">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G140">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="H140">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I140">
         <v>1.04</v>
@@ -16021,10 +16021,10 @@
         <v>4.2</v>
       </c>
       <c r="M140">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="N140">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="O140">
         <v>1.32</v>
@@ -16048,10 +16048,10 @@
         <v>2</v>
       </c>
       <c r="V140">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="W140">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X140">
         <v>2.02</v>
@@ -16104,13 +16104,13 @@
         <v>365</v>
       </c>
       <c r="F141">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="G141">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="H141">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -16152,10 +16152,10 @@
         <v>0</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="W141">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="X141">
         <v>1.37</v>
@@ -16208,13 +16208,13 @@
         <v>366</v>
       </c>
       <c r="F142">
-        <v>2.06</v>
+        <v>2.37</v>
       </c>
       <c r="G142">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H142">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="I142">
         <v>1.02</v>
@@ -16229,10 +16229,10 @@
         <v>4.33</v>
       </c>
       <c r="M142">
-        <v>1.49</v>
+        <v>1.83</v>
       </c>
       <c r="N142">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="O142">
         <v>1.3</v>
@@ -16256,10 +16256,10 @@
         <v>1.65</v>
       </c>
       <c r="V142">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W142">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="X142">
         <v>1.55</v>
@@ -16271,13 +16271,13 @@
         <v>3.22</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC142">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD142">
         <v>0</v>
@@ -16333,10 +16333,10 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="N143">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="O143">
         <v>0</v>
@@ -16360,10 +16360,10 @@
         <v>0</v>
       </c>
       <c r="V143">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="W143">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X143">
         <v>1.56</v>
@@ -16416,13 +16416,13 @@
         <v>368</v>
       </c>
       <c r="F144">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="G144">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H144">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="I144">
         <v>1.04</v>
@@ -16437,10 +16437,10 @@
         <v>3.75</v>
       </c>
       <c r="M144">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="N144">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="O144">
         <v>1.36</v>
@@ -16464,10 +16464,10 @@
         <v>1.6</v>
       </c>
       <c r="V144">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W144">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X144">
         <v>1.5</v>
@@ -16520,10 +16520,10 @@
         <v>369</v>
       </c>
       <c r="F145">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G145">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H145">
         <v>3.3</v>
@@ -16544,7 +16544,7 @@
         <v>2.05</v>
       </c>
       <c r="N145">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O145">
         <v>1.4</v>
@@ -16568,10 +16568,10 @@
         <v>1.72</v>
       </c>
       <c r="V145">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W145">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
         <v>1.61</v>
@@ -16624,13 +16624,13 @@
         <v>370</v>
       </c>
       <c r="F146">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G146">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="H146">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I146">
         <v>1.05</v>
@@ -16645,10 +16645,10 @@
         <v>3.4</v>
       </c>
       <c r="M146">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="N146">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O146">
         <v>1.4</v>
@@ -16672,10 +16672,10 @@
         <v>1.19</v>
       </c>
       <c r="V146">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="W146">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="X146">
         <v>1.31</v>
@@ -16728,13 +16728,13 @@
         <v>371</v>
       </c>
       <c r="F147">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="G147">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="H147">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="I147">
         <v>1.08</v>
@@ -16749,10 +16749,10 @@
         <v>2.75</v>
       </c>
       <c r="M147">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="N147">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O147">
         <v>1.5</v>
@@ -16776,10 +16776,10 @@
         <v>2.8</v>
       </c>
       <c r="V147">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="X147">
         <v>1.88</v>
@@ -16832,10 +16832,10 @@
         <v>372</v>
       </c>
       <c r="F148">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="G148">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H148">
         <v>2.45</v>
@@ -16853,10 +16853,10 @@
         <v>3</v>
       </c>
       <c r="M148">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="N148">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="O148">
         <v>1.44</v>
@@ -16880,10 +16880,10 @@
         <v>1.37</v>
       </c>
       <c r="V148">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W148">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X148">
         <v>1.77</v>
@@ -16987,7 +16987,7 @@
         <v>3</v>
       </c>
       <c r="W149">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X149">
         <v>1.4</v>
@@ -17088,10 +17088,10 @@
         <v>1.53</v>
       </c>
       <c r="V150">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X150">
         <v>1.74</v>
@@ -17144,13 +17144,13 @@
         <v>375</v>
       </c>
       <c r="F151">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="G151">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="H151">
-        <v>3.85</v>
+        <v>4.71</v>
       </c>
       <c r="I151">
         <v>1.08</v>
@@ -17192,7 +17192,7 @@
         <v>1.77</v>
       </c>
       <c r="V151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -17248,13 +17248,13 @@
         <v>376</v>
       </c>
       <c r="F152">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="G152">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H152">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="I152">
         <v>1.06</v>
@@ -17269,10 +17269,10 @@
         <v>3</v>
       </c>
       <c r="M152">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="N152">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O152">
         <v>1.44</v>
@@ -17296,10 +17296,10 @@
         <v>1.95</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X152">
         <v>1.5</v>
@@ -17352,13 +17352,13 @@
         <v>377</v>
       </c>
       <c r="F153">
+        <v>3.87</v>
+      </c>
+      <c r="G153">
         <v>3.2</v>
       </c>
-      <c r="G153">
-        <v>2.95</v>
-      </c>
       <c r="H153">
-        <v>2.32</v>
+        <v>1.7</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="V153">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W153">
         <v>3</v>
@@ -17507,7 +17507,7 @@
         <v>1</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X154">
         <v>1.36</v>
@@ -17560,13 +17560,13 @@
         <v>379</v>
       </c>
       <c r="F155">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G155">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H155">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="I155">
         <v>1.09</v>
@@ -17581,10 +17581,10 @@
         <v>2.5</v>
       </c>
       <c r="M155">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="N155">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O155">
         <v>1.53</v>
@@ -17608,10 +17608,10 @@
         <v>1.86</v>
       </c>
       <c r="V155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X155">
         <v>0</v>
@@ -17664,13 +17664,13 @@
         <v>380</v>
       </c>
       <c r="F156">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="G156">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="H156">
-        <v>5</v>
+        <v>4.61</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -17685,10 +17685,10 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="N156">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="O156">
         <v>0</v>
@@ -17771,10 +17771,10 @@
         <v>1.73</v>
       </c>
       <c r="G157">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="H157">
-        <v>4.6</v>
+        <v>3.92</v>
       </c>
       <c r="I157">
         <v>1.07</v>
